--- a/portfel.xlsx
+++ b/portfel.xlsx
@@ -810,7 +810,9 @@
         </is>
       </c>
       <c r="D7" s="39" t="n"/>
-      <c r="E7" s="37" t="n"/>
+      <c r="E7" s="37" t="n">
+        <v>13.7</v>
+      </c>
       <c r="G7" s="38" t="n"/>
     </row>
     <row r="8" ht="10.1" customHeight="1" s="27">
@@ -1030,7 +1032,9 @@
         <v>0.0104</v>
       </c>
       <c r="D18" s="36" t="n"/>
-      <c r="E18" s="26" t="n"/>
+      <c r="E18" s="26" t="n">
+        <v>6.4</v>
+      </c>
       <c r="G18" s="35" t="n"/>
     </row>
     <row r="19" ht="10.1" customHeight="1" s="27">
@@ -1049,7 +1053,7 @@
       </c>
       <c r="D19" s="34" t="n"/>
       <c r="E19" s="26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" s="35" t="n"/>
     </row>
@@ -1092,7 +1096,9 @@
         </is>
       </c>
       <c r="D21" s="39" t="n"/>
-      <c r="E21" s="26" t="n"/>
+      <c r="E21" s="26" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="G21" s="35" t="n"/>
     </row>
     <row r="22" ht="10.1" customHeight="1" s="27">
@@ -1130,7 +1136,9 @@
         </is>
       </c>
       <c r="D23" s="29" t="n"/>
-      <c r="E23" s="37" t="n"/>
+      <c r="E23" s="37" t="n">
+        <v>6</v>
+      </c>
       <c r="F23" s="31">
         <f>ROUND((SUM(E24:E27)/E53)*100,2)%</f>
         <v/>
@@ -1196,7 +1204,9 @@
         </is>
       </c>
       <c r="D26" s="36" t="n"/>
-      <c r="E26" s="37" t="n"/>
+      <c r="E26" s="37" t="n">
+        <v>5.1</v>
+      </c>
       <c r="G26" s="38" t="n"/>
     </row>
     <row r="27" ht="10.1" customHeight="1" s="27">
@@ -1280,7 +1290,9 @@
         </is>
       </c>
       <c r="D30" s="39" t="n"/>
-      <c r="E30" s="37" t="n"/>
+      <c r="E30" s="37" t="n">
+        <v>4.4</v>
+      </c>
       <c r="G30" s="38" t="n"/>
     </row>
     <row r="31" ht="10.1" customHeight="1" s="27">
@@ -1322,7 +1334,9 @@
         </is>
       </c>
       <c r="D32" s="39" t="n"/>
-      <c r="E32" s="37" t="n"/>
+      <c r="E32" s="37" t="n">
+        <v>1.8</v>
+      </c>
       <c r="G32" s="38" t="n"/>
     </row>
     <row r="33" ht="10.1" customHeight="1" s="27">
@@ -1364,7 +1378,9 @@
         </is>
       </c>
       <c r="D34" s="36" t="n"/>
-      <c r="E34" s="37" t="n"/>
+      <c r="E34" s="37" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G34" s="38" t="n"/>
     </row>
     <row r="35" ht="10.1" customHeight="1" s="27">
@@ -1385,7 +1401,7 @@
       </c>
       <c r="D35" s="34" t="n"/>
       <c r="E35" s="37" t="n">
-        <v>6.7</v>
+        <v>16.9</v>
       </c>
       <c r="G35" s="38" t="n"/>
     </row>
@@ -1407,7 +1423,7 @@
       </c>
       <c r="D36" s="39" t="n"/>
       <c r="E36" s="37" t="n">
-        <v>15.8</v>
+        <v>16.3</v>
       </c>
       <c r="G36" s="38" t="inlineStr">
         <is>
@@ -1474,7 +1490,9 @@
         </is>
       </c>
       <c r="D39" s="39" t="n"/>
-      <c r="E39" s="35" t="n"/>
+      <c r="E39" s="35" t="n">
+        <v>10.2</v>
+      </c>
       <c r="G39" s="35" t="n"/>
     </row>
     <row r="40" ht="10.1" customHeight="1" s="27">
@@ -1493,7 +1511,7 @@
       </c>
       <c r="D40" s="34" t="n"/>
       <c r="E40" s="35" t="n">
-        <v>9.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="G40" s="35" t="n"/>
     </row>
@@ -1554,7 +1572,9 @@
         </is>
       </c>
       <c r="D43" s="36" t="n"/>
-      <c r="E43" s="37" t="n"/>
+      <c r="E43" s="37" t="n">
+        <v>6.3</v>
+      </c>
       <c r="G43" s="38" t="n"/>
     </row>
     <row r="44" ht="10.1" customHeight="1" s="27">
@@ -1695,7 +1715,7 @@
       </c>
       <c r="D50" s="34" t="n"/>
       <c r="E50" s="37" t="n">
-        <v>123.4</v>
+        <v>10.7</v>
       </c>
       <c r="G50" s="38" t="n"/>
     </row>
